--- a/tests/Templates/Horizontal_SimpleTemplate.xlsx
+++ b/tests/Templates/Horizontal_SimpleTemplate.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sources\asr\ClosedXML.Report\tests\Templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="16290" yWindow="3495" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
@@ -14,15 +19,10 @@
     <definedName name="Orders_ProductsWithQuantities">Arkusz1!$B$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -49,14 +49,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -68,7 +77,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -76,12 +85,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -388,43 +414,43 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
-      <c r="B1" t="s">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:3">
-      <c r="B2" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
-      <c r="B3" t="s">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
